--- a/Data Files/ListUser.xlsx
+++ b/Data Files/ListUser.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECAB4CB-5157-45BF-BBE2-F62C83741E01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C67ECBE-BD1F-4F78-A137-3CC1A2841BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,106 +20,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>67^&amp;*JJnn</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>alice101</t>
-  </si>
-  <si>
-    <t>Liam</t>
-  </si>
-  <si>
-    <t>liAm123.</t>
-  </si>
-  <si>
-    <t>Eryu%^</t>
-  </si>
-  <si>
-    <t>56RT#890</t>
-  </si>
-  <si>
-    <t>Nmyu&amp;$^%</t>
-  </si>
-  <si>
-    <t>Zane</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Adeline</t>
-  </si>
-  <si>
-    <t>Anemone</t>
-  </si>
-  <si>
-    <t>.mnday123</t>
-  </si>
-  <si>
-    <t>lastDay89^&amp;*</t>
-  </si>
-  <si>
-    <t>ba1oTun()</t>
-  </si>
-  <si>
-    <t>Huyenh092</t>
-  </si>
-  <si>
-    <t>MinhMinh134&amp;*</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PSHAGHZOIA</t>
+  </si>
+  <si>
+    <t>Patrick Shaghzoian</t>
+  </si>
+  <si>
+    <t>JFITZGERAL</t>
+  </si>
+  <si>
+    <t>Joe FitzGerald</t>
+  </si>
+  <si>
+    <t>CVANDEBREG</t>
+  </si>
+  <si>
+    <t>Corne Vandebreggen</t>
+  </si>
+  <si>
+    <t>LEEJ</t>
+  </si>
+  <si>
+    <t>Joseph H Lee</t>
+  </si>
+  <si>
+    <t>OSBORNEJ</t>
+  </si>
+  <si>
+    <t>Jean Osborne</t>
+  </si>
+  <si>
+    <t>SMITHCL</t>
+  </si>
+  <si>
+    <t>Carol L Smith</t>
+  </si>
+  <si>
+    <t>SMALLS</t>
+  </si>
+  <si>
+    <t>Sharon Pole-Small</t>
+  </si>
+  <si>
+    <t>COSTAA</t>
+  </si>
+  <si>
+    <t>Andrew V Costa</t>
+  </si>
+  <si>
+    <t>LOCKETTJ</t>
+  </si>
+  <si>
+    <t>Jamia B Lockett</t>
+  </si>
+  <si>
+    <t>DIPASQUM</t>
+  </si>
+  <si>
+    <t>Melissa L Dipasquale</t>
+  </si>
+  <si>
+    <t>CMMARTIN2</t>
+  </si>
+  <si>
+    <t>CROSSLD</t>
+  </si>
+  <si>
+    <t>JPAGUILAR</t>
+  </si>
+  <si>
+    <t>HONEYCUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,8 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +442,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
@@ -456,157 +475,115 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
